--- a/ninja_pc/1903/ninja_pc.xlsx
+++ b/ninja_pc/1903/ninja_pc.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4252FF28-4701-41FC-A281-D0F9B2922D9A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3404E4-6838-4350-BEFC-19176F19FB22}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="V1" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="54">
   <si>
     <t>破解工具</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -200,6 +200,38 @@
   </si>
   <si>
     <t>VA2270插件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1903镜像安装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e:\wodewendang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电源设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>steam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15.9.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15.9.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要统一版本，否则编译会有问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -249,10 +281,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -555,19 +587,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E144B42-79D5-4109-B92D-305B2026FFFF}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="2" width="21.625" customWidth="1"/>
-    <col min="3" max="3" width="40" customWidth="1"/>
-    <col min="4" max="4" width="22.875" customWidth="1"/>
-    <col min="5" max="5" width="20.75" customWidth="1"/>
+    <col min="1" max="1" width="13.875" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="40.625" customWidth="1"/>
+    <col min="4" max="4" width="15.25" customWidth="1"/>
+    <col min="5" max="5" width="33.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -588,273 +620,308 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
-        <v>25569</v>
-      </c>
       <c r="B2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-      <c r="B3" s="2" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="4"/>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="4"/>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="4"/>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="4"/>
+      <c r="B8" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
-        <v>25569</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
-        <v>25569</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="4"/>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
-        <v>25569</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B12" t="s">
         <v>9</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
-        <v>25569</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B13" t="s">
         <v>10</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
-        <v>25569</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
-        <v>25569</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
-        <v>25569</v>
-      </c>
-      <c r="B11" s="2" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
-        <v>25569</v>
-      </c>
-      <c r="B12" s="2" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C17" t="s">
         <v>17</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D17" t="s">
         <v>19</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
-        <v>25569</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
-        <v>25569</v>
-      </c>
-      <c r="B14" s="2" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>25569</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
-        <v>25569</v>
-      </c>
-      <c r="B15" s="2" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C15">
+      <c r="C20">
         <v>430.86</v>
       </c>
-      <c r="D15">
+      <c r="D20">
         <v>430.64</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
-        <v>25569</v>
-      </c>
-      <c r="B16" s="3" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C21" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
-        <v>25569</v>
-      </c>
-      <c r="B17" s="2" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
-        <v>25569</v>
-      </c>
-      <c r="B18" s="2" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
-        <v>25569</v>
-      </c>
-      <c r="B19" s="2" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C24" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
-        <v>25569</v>
-      </c>
-      <c r="B20" s="2" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C25" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
-        <v>25569</v>
-      </c>
-      <c r="B21" s="2" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="5">
-        <v>25569</v>
-      </c>
-      <c r="B22" s="3" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="5">
-        <v>25569</v>
-      </c>
-      <c r="B23" s="3" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="5">
-        <v>25569</v>
-      </c>
-      <c r="B24" s="3" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="5">
-        <v>25569</v>
-      </c>
-      <c r="B25" s="3" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="5">
-        <v>25569</v>
-      </c>
-      <c r="B26" s="3" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="5">
-        <v>25569</v>
-      </c>
-      <c r="B27" s="3" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="5">
-        <v>25569</v>
-      </c>
-      <c r="B28" s="3" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="5">
-        <v>25569</v>
-      </c>
-      <c r="B29" s="3" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="5">
-        <v>25569</v>
-      </c>
-      <c r="B30" s="3" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B14:B1048576 B1:B12">
+  <conditionalFormatting sqref="B19:B1048576 B11:B17 B1:B9">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -897,7 +964,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>43586</v>
       </c>
       <c r="B2" t="s">
@@ -905,7 +972,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
+      <c r="A3" s="5"/>
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -914,7 +981,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
+      <c r="A4" s="5"/>
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -923,7 +990,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
+      <c r="A5" s="5"/>
       <c r="B5" t="s">
         <v>9</v>
       </c>
@@ -932,7 +999,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
+      <c r="A6" s="5"/>
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -941,7 +1008,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
+      <c r="A7" s="5"/>
       <c r="B7" t="s">
         <v>13</v>
       </c>

--- a/ninja_pc/1903/ninja_pc.xlsx
+++ b/ninja_pc/1903/ninja_pc.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3404E4-6838-4350-BEFC-19176F19FB22}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C385FC-DBBE-4289-9734-DA4DFF391317}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="V1" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="56">
   <si>
     <t>破解工具</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -148,18 +148,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>千万不要和2019混装</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>检查VISIO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>设置下载目录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>E:\Users\gdnh_\Downloads</t>
   </si>
   <si>
@@ -195,10 +187,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1903大更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>VA2270插件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -207,10 +195,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>e:\wodewendang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>我的文档</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -232,6 +216,29 @@
   </si>
   <si>
     <t>需要统一版本，否则编译会有问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deep_freeze</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁W,136ang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\Users\gdnh_\Documents</t>
+  </si>
+  <si>
+    <t>删除wodewendang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>千万不要和2016混装</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -290,7 +297,17 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -587,18 +604,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E144B42-79D5-4109-B92D-305B2026FFFF}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.875" customWidth="1"/>
-    <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="40.625" customWidth="1"/>
-    <col min="4" max="4" width="15.25" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="48.25" customWidth="1"/>
+    <col min="4" max="4" width="40" customWidth="1"/>
     <col min="5" max="5" width="33.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -621,7 +638,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -635,294 +652,309 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>53</v>
+      </c>
+      <c r="D4" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>52</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>25569</v>
-      </c>
+      <c r="A6" s="4"/>
       <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" t="s">
-        <v>50</v>
+      <c r="A7" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
+      <c r="A8" s="4">
+        <v>25569</v>
+      </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" t="s">
-        <v>53</v>
+        <v>24</v>
+      </c>
+      <c r="C8">
+        <v>430.86</v>
+      </c>
+      <c r="D8">
+        <v>430.64</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="2"/>
+      <c r="A9" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
-        <v>25569</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
+      <c r="A11" s="4"/>
+      <c r="B11" s="3"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>25569</v>
       </c>
-      <c r="B12" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
-        <v>25569</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
+      <c r="A13" s="4"/>
+      <c r="B13" s="3"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
-        <v>25569</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
+      <c r="A14" s="4"/>
+      <c r="B14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>25569</v>
       </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
-        <v>25569</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>15</v>
+      <c r="B15" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
-        <v>25569</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" t="s">
-        <v>18</v>
-      </c>
+      <c r="A17" s="4"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
-        <v>25569</v>
-      </c>
+      <c r="A18" s="4"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>25569</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
-        <v>25569</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20">
-        <v>430.86</v>
-      </c>
-      <c r="D20">
-        <v>430.64</v>
-      </c>
+      <c r="A20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>25569</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>26</v>
+      <c r="B21" t="s">
+        <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
-        <v>25569</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
-        <v>25569</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>28</v>
+      <c r="A22" s="4"/>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>25569</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>29</v>
+      <c r="B24" t="s">
+        <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>25569</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>31</v>
+      <c r="B25" t="s">
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>25569</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>34</v>
+      <c r="B26" t="s">
+        <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>25569</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>36</v>
+      <c r="B27" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>25569</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>37</v>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>25569</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="4">
-        <v>25569</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="4">
-        <v>25569</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>40</v>
+      <c r="B29" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>25569</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>25569</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B33" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>25569</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B34" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>25569</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>45</v>
+      <c r="B35" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B44" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B19:B1048576 B11:B17 B1:B9">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  <conditionalFormatting sqref="B22">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32:B35 B24:B29 B37:B41 B44:B1048576 B17:B21 B1:B15 C22">
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1047,7 +1079,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">

--- a/ninja_pc/1903/ninja_pc.xlsx
+++ b/ninja_pc/1903/ninja_pc.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C385FC-DBBE-4289-9734-DA4DFF391317}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A31396F-10BA-4DF1-A06E-F377C5AF0759}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8445" yWindow="555" windowWidth="17775" windowHeight="13305" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="V1" sheetId="3" r:id="rId1"/>
-    <sheet name="V2" sheetId="2" r:id="rId2"/>
-    <sheet name="说明" sheetId="1" r:id="rId3"/>
+    <sheet name="V2" sheetId="2" r:id="rId1"/>
+    <sheet name="V1" sheetId="3" r:id="rId2"/>
+    <sheet name="V0" sheetId="4" r:id="rId3"/>
+    <sheet name="说明" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="67">
   <si>
     <t>破解工具</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -239,6 +240,49 @@
   </si>
   <si>
     <t>千万不要和2016混装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1903系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在线更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OFFICE365</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VISIO2019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROJECT2019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置我的文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\Users\gdnh_\Pictures</t>
+  </si>
+  <si>
+    <t>停留十分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W,136ang</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -282,7 +326,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -293,6 +337,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -603,365 +648,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E144B42-79D5-4109-B92D-305B2026FFFF}">
-  <dimension ref="A1:E44"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="48.25" customWidth="1"/>
-    <col min="4" max="4" width="40" customWidth="1"/>
-    <col min="5" max="5" width="33.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>25569</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-      <c r="B4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>25569</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>25569</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8">
-        <v>430.86</v>
-      </c>
-      <c r="D8">
-        <v>430.64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
-        <v>25569</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
-        <v>25569</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
-        <v>25569</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
-        <v>25569</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
-        <v>25569</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
-        <v>25569</v>
-      </c>
-      <c r="B21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
-        <v>25569</v>
-      </c>
-      <c r="B24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
-        <v>25569</v>
-      </c>
-      <c r="B25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
-        <v>25569</v>
-      </c>
-      <c r="B26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
-        <v>25569</v>
-      </c>
-      <c r="B27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
-        <v>25569</v>
-      </c>
-      <c r="B28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="4">
-        <v>25569</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="4">
-        <v>25569</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="4">
-        <v>25569</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="4">
-        <v>25569</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="4">
-        <v>25569</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="4">
-        <v>25569</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="4">
-        <v>25569</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="4">
-        <v>25569</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="4">
-        <v>25569</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="4">
-        <v>25569</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B44" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C44" t="s">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B32:B35 B24:B29 B37:B41 B44:B1048576 B17:B21 B1:B15 C22">
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF94FBC4-41C7-4ACF-AD28-3E73DE77B865}">
   <dimension ref="A1:E7"/>
   <sheetViews>
@@ -1051,7 +737,366 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E144B42-79D5-4109-B92D-305B2026FFFF}">
+  <dimension ref="A1:E44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="48.25" customWidth="1"/>
+    <col min="4" max="4" width="40" customWidth="1"/>
+    <col min="5" max="5" width="33.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="4"/>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="4"/>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="4"/>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8">
+        <v>430.86</v>
+      </c>
+      <c r="D8">
+        <v>430.64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="4"/>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="4"/>
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="4"/>
+      <c r="B14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B44" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B22">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32:B35 B24:B29 B37:B41 B44:B1048576 B17:B21 B1:B15 C22">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1059,6 +1104,103 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A5165A5-48A9-4C7F-9FF1-9DB4276A1883}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="31.375" customWidth="1"/>
+    <col min="4" max="4" width="19.875" customWidth="1"/>
+    <col min="5" max="5" width="19.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
+        <v>43643</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>

--- a/ninja_pc/1903/ninja_pc.xlsx
+++ b/ninja_pc/1903/ninja_pc.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A31396F-10BA-4DF1-A06E-F377C5AF0759}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8445" yWindow="555" windowWidth="17775" windowHeight="13305" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8445" yWindow="555" windowWidth="17775" windowHeight="13305" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="V2" sheetId="2" r:id="rId1"/>
     <sheet name="V1" sheetId="3" r:id="rId2"/>
-    <sheet name="V0" sheetId="4" r:id="rId3"/>
+    <sheet name="NINJA59KV0" sheetId="4" r:id="rId3"/>
     <sheet name="说明" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="80">
   <si>
     <t>破解工具</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,10 +124,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>project2019</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>VA插件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -164,121 +159,174 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>hypersnap8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>winrar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xmind zen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d:\typora</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VA2270插件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>steam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15.9.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15.9.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要统一版本，否则编译会有问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deep_freeze</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁W,136ang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\Users\gdnh_\Documents</t>
+  </si>
+  <si>
+    <t>删除wodewendang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1903系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在线更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OFFICE365</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VISIO2019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROJECT2019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置我的文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\Users\gdnh_\Pictures</t>
+  </si>
+  <si>
+    <t>停留十分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W,136ang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ninja59kv0为基础版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\Program Files (x86)\Microsoft Visual Studio\2017\Community</t>
+  </si>
+  <si>
     <t>GIT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hypersnap8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>winrar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xmind zen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d:\typora</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重命名NINJA59K-PC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VA2270插件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1903镜像安装</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的文档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电源设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>steam</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15.9.13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15.9.12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要统一版本，否则编译会有问题</t>
+    <t>TORTOISEGIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁用DEFENDER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reg add "HKEY_LOCAL_MACHINE\SOFTWARE\Policies\Microsoft\Windows Defender" /v "DisableAntiSpyware" /d 1 /t REG_DWORD /f</t>
+  </si>
+  <si>
+    <t>找到windows Defender选项管理模板-windows组件-windows defender防病毒程序，</t>
+  </si>
+  <si>
+    <t>chrome</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gosoz登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fireshot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.22.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>easyconnect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海云SVN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c:\sangfor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步公司库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装ecologyplugin插件下载.net2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>360浏览器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>deep_freeze</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁W,136ang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下载位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E:\Users\gdnh_\Documents</t>
-  </si>
-  <si>
-    <t>删除wodewendang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>千万不要和2016混装</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1903系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在线更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OFFICE365</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VISIO2019</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PROJECT2019</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置我的文档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E:\Users\gdnh_\Pictures</t>
-  </si>
-  <si>
-    <t>停留十分钟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加admin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -289,8 +337,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,6 +348,37 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1E1E1E"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -326,7 +405,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -334,15 +413,51 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -648,11 +763,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF94FBC4-41C7-4ACF-AD28-3E73DE77B865}">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A12" sqref="A12:C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -682,7 +797,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+      <c r="A2" s="12">
         <v>43586</v>
       </c>
       <c r="B2" t="s">
@@ -690,7 +805,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
+      <c r="A3" s="12"/>
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -699,7 +814,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
+      <c r="A4" s="12"/>
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -708,7 +823,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
+      <c r="A5" s="12"/>
       <c r="B5" t="s">
         <v>9</v>
       </c>
@@ -717,7 +832,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
+      <c r="A6" s="12"/>
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -726,9 +841,173 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
+      <c r="A7" s="12"/>
       <c r="B7" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="4"/>
+      <c r="B12" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="4"/>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B32" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -736,8 +1015,14 @@
     <mergeCell ref="A2:A7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B1:B1048576">
+  <conditionalFormatting sqref="B1:B11 B34:B1048576">
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14">
     <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32:B33 B16:B25 B27:B30 C14 B12:B13">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -745,19 +1030,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E144B42-79D5-4109-B92D-305B2026FFFF}">
-  <dimension ref="A1:E44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="48.25" customWidth="1"/>
-    <col min="4" max="4" width="40" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="43.125" customWidth="1"/>
+    <col min="4" max="4" width="43.75" customWidth="1"/>
     <col min="5" max="5" width="33.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -779,324 +1064,212 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="15">
+        <v>43643</v>
+      </c>
       <c r="B2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="15"/>
+      <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="15"/>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>25569</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-      <c r="B4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" t="s">
-        <v>54</v>
-      </c>
-    </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
+      <c r="A5" s="15"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="7" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>25569</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>25569</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="A6" s="15"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="15"/>
+      <c r="B7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="15"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="15"/>
+      <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C8">
+      <c r="C9" s="10">
         <v>430.86</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>430.64</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
-        <v>25569</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
-        <v>25569</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>41</v>
+      <c r="A10" s="15"/>
+      <c r="B10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="8" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
-        <v>25569</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>55</v>
+      <c r="A12" s="15"/>
+      <c r="B12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3"/>
+      <c r="A13" s="15"/>
+      <c r="C13" s="3" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
-        <v>25569</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
-        <v>25569</v>
-      </c>
+      <c r="A15" s="15"/>
+      <c r="B15" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="15"/>
+      <c r="B17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="15"/>
+      <c r="B18" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="15"/>
       <c r="B19" s="2" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
-        <v>25569</v>
-      </c>
-      <c r="B21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="4"/>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
-      <c r="B22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
-        <v>25569</v>
-      </c>
-      <c r="B24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
-        <v>25569</v>
-      </c>
-      <c r="B25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
-        <v>25569</v>
-      </c>
-      <c r="B26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
-        <v>25569</v>
-      </c>
-      <c r="B27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
-        <v>25569</v>
-      </c>
-      <c r="B28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="4">
-        <v>25569</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="4">
-        <v>25569</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="4">
-        <v>25569</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="4">
-        <v>25569</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="4">
-        <v>25569</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="4">
-        <v>25569</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="4">
-        <v>25569</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="4">
-        <v>25569</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="4">
-        <v>25569</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="4">
-        <v>25569</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B44" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C44" t="s">
-        <v>51</v>
-      </c>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="4"/>
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="4"/>
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="4"/>
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="4"/>
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="4"/>
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="4"/>
+      <c r="B28" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="B15:B16"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B32:B35 B24:B29 B37:B41 B44:B1048576 B17:B21 B1:B15 C22">
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+  <conditionalFormatting sqref="B51:B1048576 B1:B12 B14:B15 C13 C6 B18:B28">
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1104,11 +1277,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A5165A5-48A9-4C7F-9FF1-9DB4276A1883}">
-  <dimension ref="A1:E12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1121,79 +1294,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C1" t="s">
+      <c r="A1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="14">
+        <v>43643</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="14"/>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="14"/>
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
-        <v>43643</v>
-      </c>
-      <c r="B2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" t="s">
-        <v>66</v>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="14"/>
+      <c r="B5" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>62</v>
-      </c>
+      <c r="A6" s="14"/>
+      <c r="B6" s="13"/>
       <c r="C6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="14"/>
+      <c r="B7" s="13"/>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="14"/>
+      <c r="B8" s="13"/>
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="14"/>
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="14"/>
+      <c r="B10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>60</v>
-      </c>
-    </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="14"/>
       <c r="B11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="A2:A11"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1201,7 +1396,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1221,7 +1416,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">

--- a/ninja_pc/1903/ninja_pc.xlsx
+++ b/ninja_pc/1903/ninja_pc.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EAA2D9D-D424-4544-8068-4FCDE70FEB98}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8445" yWindow="555" windowWidth="17775" windowHeight="13305" activeTab="1"/>
+    <workbookView xWindow="-26235" yWindow="2730" windowWidth="20865" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="V2" sheetId="2" r:id="rId1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="100">
   <si>
     <t>破解工具</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,10 +45,187 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>C:\Users\gdnh_\wf_program\GOSOZ商务.exe</t>
-  </si>
-  <si>
-    <t>GOSOZ</t>
+    <t>foxit reader</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\Users\gdnh_\wf_program\foxitpro\Foxit PhantomPDF</t>
+  </si>
+  <si>
+    <t>windows10manager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vmware</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mindmanager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tortoisesvn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\Users\gdnh_\wf_program\tortoisesvn\</t>
+  </si>
+  <si>
+    <t>1.12.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有中文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VS2017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新WIN10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印机驱动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新显卡驱动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加激活码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查VISIO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\Users\gdnh_\Downloads</t>
+  </si>
+  <si>
+    <t>QQ五笔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hypersnap8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VA2270插件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>steam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15.9.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15.9.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要统一版本，否则编译会有问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\Users\gdnh_\Documents</t>
+  </si>
+  <si>
+    <t>删除wodewendang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1903系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在线更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OFFICE365</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VISIO2019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROJECT2019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置我的文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\Users\gdnh_\Pictures</t>
+  </si>
+  <si>
+    <t>停留十分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W,136ang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ninja59kv0为基础版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\Program Files (x86)\Microsoft Visual Studio\2017\Community</t>
+  </si>
+  <si>
+    <t>GIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TORTOISEGIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁用DEFENDER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reg add "HKEY_LOCAL_MACHINE\SOFTWARE\Policies\Microsoft\Windows Defender" /v "DisableAntiSpyware" /d 1 /t REG_DWORD /f</t>
+  </si>
+  <si>
+    <t>找到windows Defender选项管理模板-windows组件-windows defender防病毒程序，</t>
+  </si>
+  <si>
+    <t>chrome</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gosoz登录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -55,103 +233,119 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>chrome.fireshot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>everything</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>foxit reader</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C:\Users\gdnh_\wf_program\everything</t>
-  </si>
-  <si>
-    <t>C:\Users\gdnh_\wf_program\foxitpro\Foxit PhantomPDF</t>
-  </si>
-  <si>
-    <t>windows10manager</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vmware</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mindmanager</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tortoisesvn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C:\Users\gdnh_\wf_program\tortoisesvn\</t>
-  </si>
-  <si>
-    <t>1.12.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有中文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VS2017</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新WIN10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17763.503</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打印机驱动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新显卡驱动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VA插件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MFC-VS2017组件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重装xmanager</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加激活码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>typora</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查VISIO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E:\Users\gdnh_\Downloads</t>
-  </si>
-  <si>
-    <t>QQ五笔</t>
+    <t>2.22.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>easyconnect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海云SVN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c:\sangfor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步公司库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装ecologyplugin插件下载.net2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>360浏览器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deep_freeze</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W,136ang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.1.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>geany</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.35.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁用defender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>winrar351</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度网盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xmind zen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.1.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜狗拼音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sqlite expert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清理回收站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to-do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卸载QQ游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xmanager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c:\wf_program\</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -159,185 +353,72 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hypersnap8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>winrar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xmind zen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d:\typora</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VA2270插件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>steam</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15.9.13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15.9.12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要统一版本，否则编译会有问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deep_freeze</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁W,136ang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E:\Users\gdnh_\Documents</t>
-  </si>
-  <si>
-    <t>删除wodewendang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1903系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在线更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OFFICE365</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VISIO2019</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PROJECT2019</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置我的文档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E:\Users\gdnh_\Pictures</t>
-  </si>
-  <si>
-    <t>停留十分钟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加admin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>W,136ang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ninja59kv0为基础版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C:\Program Files (x86)\Microsoft Visual Studio\2017\Community</t>
-  </si>
-  <si>
-    <t>GIT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TORTOISEGIT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>禁用DEFENDER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reg add "HKEY_LOCAL_MACHINE\SOFTWARE\Policies\Microsoft\Windows Defender" /v "DisableAntiSpyware" /d 1 /t REG_DWORD /f</t>
-  </si>
-  <si>
-    <t>找到windows Defender选项管理模板-windows组件-windows defender防病毒程序，</t>
-  </si>
-  <si>
-    <t>chrome</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gosoz登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fireshot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.22.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>easyconnect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海云SVN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c:\sangfor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同步公司库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安装ecologyplugin插件下载.net2.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>360浏览器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deep_freeze</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>W,136ang</t>
+    <t>计算机重命名NINJA59Kpc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oracle不支持符号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLSQL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\PLSQL Developer 12</t>
+  </si>
+  <si>
+    <t>G:\oraclesoft\client\x86\12.2.0.1.0</t>
+  </si>
+  <si>
+    <t>登录公司SVN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷新代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重装EXCEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决打开白屏问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新WINDOWS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KB4502584</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累积更新，KB4501375</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mindline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重装VS2017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编译时对COM组件的调用返回了错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vs_setup，修复。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -405,7 +486,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -428,26 +509,60 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -763,25 +878,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:C33"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="3" max="3" width="49.25" customWidth="1"/>
+    <col min="2" max="2" width="21.75" customWidth="1"/>
+    <col min="3" max="3" width="51.75" customWidth="1"/>
     <col min="4" max="4" width="22.875" customWidth="1"/>
     <col min="5" max="5" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -797,232 +912,282 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="12">
-        <v>43586</v>
+      <c r="A2" s="20">
+        <v>43643</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>63</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="12"/>
+      <c r="A3" s="20"/>
       <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="20"/>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="12"/>
-      <c r="B4" t="s">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="20"/>
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="20"/>
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="20"/>
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="20"/>
+      <c r="B8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="20"/>
+      <c r="B9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="20"/>
+      <c r="B10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="20"/>
+      <c r="B11" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="20"/>
+      <c r="B12" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="20"/>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="20"/>
+      <c r="B14" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="20"/>
+      <c r="B15" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="20"/>
+      <c r="B16" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="20"/>
+      <c r="B17" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="20"/>
+      <c r="B18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="12"/>
-      <c r="B5" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="20"/>
+      <c r="B19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="20"/>
+      <c r="B20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="12"/>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
-        <v>25569</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
-        <v>25569</v>
-      </c>
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
-        <v>25569</v>
-      </c>
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
-        <v>25569</v>
-      </c>
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
-        <v>25569</v>
-      </c>
-      <c r="B19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
-        <v>25569</v>
-      </c>
-      <c r="B20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>22</v>
+      <c r="C20" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
-        <v>25569</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>15</v>
+      <c r="A21" s="20"/>
+      <c r="B21" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
-        <v>25569</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>26</v>
+      <c r="A22" s="20"/>
+      <c r="B22" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
-        <v>25569</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>27</v>
+      <c r="A23" s="12"/>
+      <c r="B23" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
-        <v>25569</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>28</v>
+      <c r="A24" s="13"/>
+      <c r="B24" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
-        <v>25569</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="A25" s="13"/>
+      <c r="B25" s="3"/>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="14"/>
+      <c r="B26" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
-        <v>25569</v>
-      </c>
+      <c r="A27" s="15"/>
       <c r="B27" s="3" t="s">
-        <v>34</v>
+        <v>91</v>
+      </c>
+      <c r="C27" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
-        <v>25569</v>
-      </c>
+      <c r="A28" s="16"/>
       <c r="B28" s="3" t="s">
-        <v>35</v>
+        <v>93</v>
+      </c>
+      <c r="C28" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="4">
-        <v>25569</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>36</v>
+      <c r="A29" s="17"/>
+      <c r="B29" s="3"/>
+      <c r="C29" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="4">
-        <v>25569</v>
-      </c>
+      <c r="A30" s="17"/>
       <c r="B30" s="3" t="s">
-        <v>37</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="18"/>
+      <c r="B31" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B32" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="A32" s="19"/>
+      <c r="B32" s="3"/>
       <c r="C32" t="s">
-        <v>45</v>
-      </c>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="4"/>
+      <c r="B33" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="4"/>
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="4"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="4"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="4"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A2:A22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B1:B11 B34:B1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+  <conditionalFormatting sqref="B13:B17">
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  <conditionalFormatting sqref="B33 B41:B1048576 B1:B10">
+    <cfRule type="duplicateValues" dxfId="3" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B32:B33 B16:B25 B27:B30 C14 B12:B13">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  <conditionalFormatting sqref="B40 B18:B32 C13:C18 B11:B12 C20:C33">
+    <cfRule type="duplicateValues" dxfId="2" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B39:B1048576 B1:B33">
+    <cfRule type="duplicateValues" dxfId="1" priority="26"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1030,11 +1195,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1048,7 +1213,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1064,74 +1229,71 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="15">
+      <c r="A2" s="21">
         <v>43643</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="C2" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="15"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C3" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="2"/>
       <c r="C5" s="7" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="3" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="8" t="s">
-        <v>67</v>
-      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C9" s="10">
         <v>430.86</v>
@@ -1141,89 +1303,89 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="2" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="2"/>
       <c r="C11" s="8" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="15"/>
+      <c r="A13" s="21"/>
       <c r="C13" s="3" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16" t="s">
-        <v>72</v>
+      <c r="A15" s="21"/>
+      <c r="B15" s="22" t="s">
+        <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="D15" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="16"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="22"/>
       <c r="C16" s="11" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
+      <c r="A17" s="21"/>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="2" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
+      <c r="A19" s="21"/>
       <c r="B19" s="2" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -1277,7 +1439,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1295,10 +1457,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>2</v>
@@ -1307,81 +1469,81 @@
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="14">
+      <c r="A2" s="24">
         <v>43643</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="14"/>
+      <c r="A3" s="24"/>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="14"/>
+      <c r="A4" s="24"/>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="14"/>
-      <c r="B5" s="13" t="s">
-        <v>54</v>
+      <c r="A5" s="24"/>
+      <c r="B5" s="23" t="s">
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="14"/>
-      <c r="B6" s="13"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="23"/>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-      <c r="B7" s="13"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="23"/>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
-      <c r="B8" s="13"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="23"/>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
+      <c r="A9" s="24"/>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
+      <c r="A10" s="24"/>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
+      <c r="A11" s="24"/>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1396,7 +1558,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1411,12 +1573,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">

--- a/ninja_pc/1903/ninja_pc.xlsx
+++ b/ninja_pc/1903/ninja_pc.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EAA2D9D-D424-4544-8068-4FCDE70FEB98}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F8AA9B-AA36-448F-9B90-A3552FC1F1B4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26235" yWindow="2730" windowWidth="20865" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21690" yWindow="4290" windowWidth="20865" windowHeight="12750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="V2" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="109">
   <si>
     <t>破解工具</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -301,10 +301,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>xmind zen</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -412,6 +408,45 @@
   </si>
   <si>
     <t>vs_setup，修复。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACDSee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JAVAC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ECLIPSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>README.md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查回收站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xmind zen9.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新9.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置桌面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\Users\gdnh_\Desktop</t>
+  </si>
+  <si>
+    <t>整理开始菜单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -486,7 +521,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -509,30 +544,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -879,10 +890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -912,8 +923,8 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="20">
-        <v>43643</v>
+      <c r="A2" s="12">
+        <v>43645</v>
       </c>
       <c r="B2" t="s">
         <v>63</v>
@@ -923,7 +934,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="20"/>
+      <c r="A3" s="12"/>
       <c r="B3" t="s">
         <v>65</v>
       </c>
@@ -932,7 +943,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="20"/>
+      <c r="A4" s="12"/>
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -941,7 +952,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="20"/>
+      <c r="A5" s="12"/>
       <c r="B5" t="s">
         <v>7</v>
       </c>
@@ -950,7 +961,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="20"/>
+      <c r="A6" s="12"/>
       <c r="B6" t="s">
         <v>67</v>
       </c>
@@ -959,49 +970,49 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="20"/>
+      <c r="A7" s="12"/>
       <c r="B7" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="20"/>
+      <c r="A8" s="12"/>
       <c r="B8" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="20"/>
+      <c r="A9" s="12"/>
       <c r="B9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" t="s">
         <v>72</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="12"/>
+      <c r="B10" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="20"/>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>74</v>
       </c>
-      <c r="C10" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="20"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="20"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="20"/>
+      <c r="A13" s="12"/>
       <c r="B13" t="s">
         <v>25</v>
       </c>
@@ -1010,61 +1021,61 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="20"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="12"/>
+      <c r="B15" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="20"/>
-      <c r="B15" s="3" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="12"/>
+      <c r="B16" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="20"/>
-      <c r="B16" s="3" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="12"/>
+      <c r="B17" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="20"/>
-      <c r="B17" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="20"/>
+      <c r="A18" s="12"/>
       <c r="B18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="20"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="20"/>
+      <c r="A20" s="12"/>
       <c r="B20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="12"/>
+      <c r="B21" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="20"/>
-      <c r="B21" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="20"/>
+      <c r="A22" s="12"/>
       <c r="B22" s="3" t="s">
         <v>23</v>
       </c>
@@ -1072,121 +1083,158 @@
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
       <c r="B23" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" t="s">
         <v>84</v>
       </c>
-      <c r="C23" t="s">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="12"/>
+      <c r="B24" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="13"/>
-      <c r="B24" s="3" t="s">
+      <c r="C24" t="s">
         <v>86</v>
       </c>
-      <c r="C24" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="13"/>
+      <c r="A25" s="12"/>
       <c r="B25" s="3"/>
       <c r="C25" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="12"/>
+      <c r="B26" s="3" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
-      <c r="B26" s="3" t="s">
+      <c r="C26" t="s">
         <v>89</v>
       </c>
-      <c r="C26" t="s">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="12"/>
+      <c r="B27" s="3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="15"/>
-      <c r="B27" s="3" t="s">
+      <c r="C27" t="s">
         <v>91</v>
       </c>
-      <c r="C27" t="s">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="12"/>
+      <c r="B28" s="3" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="16"/>
-      <c r="B28" s="3" t="s">
+      <c r="C28" t="s">
         <v>93</v>
       </c>
-      <c r="C28" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="17"/>
+      <c r="A29" s="12"/>
       <c r="B29" s="3"/>
       <c r="C29" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="12"/>
+      <c r="B30" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="17"/>
-      <c r="B30" s="3" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="12"/>
+      <c r="B31" s="3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="18"/>
-      <c r="B31" s="3" t="s">
+      <c r="C31" t="s">
         <v>97</v>
       </c>
-      <c r="C31" t="s">
-        <v>98</v>
-      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="19"/>
+      <c r="A32" s="12"/>
       <c r="B32" s="3"/>
       <c r="C32" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="12"/>
+      <c r="B33" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="4"/>
-      <c r="B33" s="11" t="s">
-        <v>71</v>
-      </c>
-    </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="4"/>
-      <c r="C34" s="1"/>
+      <c r="A34" s="12"/>
+      <c r="B34" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="4"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="3" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="4"/>
+      <c r="A36" s="12"/>
+      <c r="B36" s="3" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="4"/>
+      <c r="A37" s="4">
+        <v>43646</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
+      <c r="B38" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="4"/>
+      <c r="B39" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="4"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A22"/>
+    <mergeCell ref="A2:A36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B13:B17">
     <cfRule type="duplicateValues" dxfId="4" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B33 B41:B1048576 B1:B10">
+  <conditionalFormatting sqref="B44:B1048576 B1:B10">
     <cfRule type="duplicateValues" dxfId="3" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B40 B18:B32 C13:C18 B11:B12 C20:C33">
+  <conditionalFormatting sqref="B43 C13:C18 B11:B12 C20:C36 B18:B39">
     <cfRule type="duplicateValues" dxfId="2" priority="22"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B39:B1048576 B1:B33">
+  <conditionalFormatting sqref="B42:B1048576 B1:B39">
     <cfRule type="duplicateValues" dxfId="1" priority="26"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1229,7 +1277,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="21">
+      <c r="A2" s="13">
         <v>43643</v>
       </c>
       <c r="B2" t="s">
@@ -1240,7 +1288,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="21"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
@@ -1249,7 +1297,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="21"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
@@ -1264,21 +1312,21 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="21"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="2"/>
       <c r="C5" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="21"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="21"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="3" t="s">
         <v>48</v>
       </c>
@@ -1287,11 +1335,11 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="21"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="3"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="21"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
@@ -1303,7 +1351,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="21"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="2" t="s">
         <v>51</v>
       </c>
@@ -1312,14 +1360,14 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="21"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="2"/>
       <c r="C11" s="8" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="21"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="2" t="s">
         <v>46</v>
       </c>
@@ -1328,13 +1376,13 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="21"/>
+      <c r="A13" s="13"/>
       <c r="C13" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="21"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
@@ -1349,8 +1397,8 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="21"/>
-      <c r="B15" s="22" t="s">
+      <c r="A15" s="13"/>
+      <c r="B15" s="14" t="s">
         <v>55</v>
       </c>
       <c r="C15" t="s">
@@ -1361,26 +1409,26 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="21"/>
-      <c r="B16" s="22"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
       <c r="C16" s="11" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="21"/>
+      <c r="A17" s="13"/>
       <c r="B17" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="21"/>
+      <c r="A18" s="13"/>
       <c r="B18" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="21"/>
+      <c r="A19" s="13"/>
       <c r="B19" s="2" t="s">
         <v>61</v>
       </c>
@@ -1473,7 +1521,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="24">
+      <c r="A2" s="16">
         <v>43643</v>
       </c>
       <c r="B2" t="s">
@@ -1481,7 +1529,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="24"/>
+      <c r="A3" s="16"/>
       <c r="B3" t="s">
         <v>32</v>
       </c>
@@ -1490,7 +1538,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="24"/>
+      <c r="A4" s="16"/>
       <c r="B4" t="s">
         <v>40</v>
       </c>
@@ -1499,8 +1547,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="24"/>
-      <c r="B5" s="23" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="15" t="s">
         <v>37</v>
       </c>
       <c r="C5" t="s">
@@ -1508,40 +1556,40 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="24"/>
-      <c r="B6" s="23"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="15"/>
       <c r="C6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="24"/>
-      <c r="B7" s="23"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="15"/>
       <c r="C7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="24"/>
-      <c r="B8" s="23"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="15"/>
       <c r="C8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="24"/>
+      <c r="A9" s="16"/>
       <c r="B9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="24"/>
+      <c r="A10" s="16"/>
       <c r="B10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="24"/>
+      <c r="A11" s="16"/>
       <c r="B11" t="s">
         <v>34</v>
       </c>

--- a/ninja_pc/1903/ninja_pc.xlsx
+++ b/ninja_pc/1903/ninja_pc.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F8AA9B-AA36-448F-9B90-A3552FC1F1B4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BEFCC5D-F205-454B-8EA6-176BBD1DF101}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21690" yWindow="4290" windowWidth="20865" windowHeight="12750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="2535" windowWidth="29040" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="V2" sheetId="2" r:id="rId1"/>
     <sheet name="V1" sheetId="3" r:id="rId2"/>
     <sheet name="NINJA59KV0" sheetId="4" r:id="rId3"/>
-    <sheet name="说明" sheetId="1" r:id="rId4"/>
+    <sheet name="解锁要做的事情" sheetId="5" r:id="rId4"/>
+    <sheet name="说明" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="148">
   <si>
     <t>破解工具</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -215,238 +216,392 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>找到windows Defender选项管理模板-windows组件-windows defender防病毒程序，</t>
+  </si>
+  <si>
+    <t>chrome</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gosoz登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fireshot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.22.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>easyconnect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海云SVN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c:\sangfor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步公司库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装ecologyplugin插件下载.net2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>360浏览器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deep_freeze</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W,136ang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.1.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>geany</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.35.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁用defender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>winrar351</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度网盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xmind zen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.1.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜狗拼音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sqlite expert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清理回收站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to-do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卸载QQ游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xmanager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c:\wf_program\</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notepad++</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机重命名NINJA59Kpc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oracle不支持符号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLSQL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\PLSQL Developer 12</t>
+  </si>
+  <si>
+    <t>G:\oraclesoft\client\x86\12.2.0.1.0</t>
+  </si>
+  <si>
+    <t>登录公司SVN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷新代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重装EXCEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决打开白屏问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新WINDOWS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KB4502584</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累积更新，KB4501375</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mindline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重装VS2017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编译时对COM组件的调用返回了错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vs_setup，修复。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACDSee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JAVAC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ECLIPSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>README.md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查回收站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xmind zen9.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置桌面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\Users\gdnh_\Desktop</t>
+  </si>
+  <si>
+    <t>整理开始菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i4tools</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载驱动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ps2019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>断网重启</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装ps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\wf_program\x64\adobe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>reg add "HKEY_LOCAL_MACHINE\SOFTWARE\Policies\Microsoft\Windows Defender" /v "DisableAntiSpyware" /d 1 /t REG_DWORD /f</t>
-  </si>
-  <si>
-    <t>找到windows Defender选项管理模板-windows组件-windows defender防病毒程序，</t>
-  </si>
-  <si>
-    <t>chrome</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gosoz登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fireshot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.22.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>easyconnect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海云SVN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c:\sangfor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同步公司库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安装ecologyplugin插件下载.net2.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>360浏览器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deep_freeze</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>W,136ang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.1.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>geany</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.35.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>禁用defender</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.1.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>winrar351</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百度网盘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xmind zen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.1.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜狗拼音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sqlite expert</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清理回收站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>to-do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卸载QQ游戏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xmanager</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c:\wf_program\</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>notepad++</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算机重命名NINJA59Kpc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oracle不支持符号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLSQL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D:\PLSQL Developer 12</t>
-  </si>
-  <si>
-    <t>G:\oraclesoft\client\x86\12.2.0.1.0</t>
-  </si>
-  <si>
-    <t>登录公司SVN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刷新代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重装EXCEL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解决打开白屏问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新WINDOWS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KB4502584</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>累积更新，KB4501375</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mindline</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重装VS2017</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编译时对COM组件的调用返回了错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vs_setup，修复。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACDSee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JAVAC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ECLIPSE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>README.md</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查回收站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xmind zen9.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新9.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置桌面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E:\Users\gdnh_\Desktop</t>
-  </si>
-  <si>
-    <t>整理开始菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VLC播放器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认播放器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会声会影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>project2019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hiynn.mpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开excel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清空回收站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Navicat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysql, sqlite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\wf_program\x86\Navicat\v12</t>
+  </si>
+  <si>
+    <t>mysql5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python3.7 x64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cloudmusic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\Netease\CloudMusic</t>
+  </si>
+  <si>
+    <t>查看Windows更新有没有正在安装状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消【同步你的设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有道词典</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\wf_program\x86\netease\Dict</t>
+  </si>
+  <si>
+    <t>8.5.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TNS_NAMES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oracle环境变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VS设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAB转空格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>corel video</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入pro版本key就是pro版本，安装了pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传rar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pycharm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v20190101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visio2019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接GOSOZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hosts</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -521,7 +676,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -544,8 +699,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -890,22 +1052,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="2" width="21.75" customWidth="1"/>
-    <col min="3" max="3" width="51.75" customWidth="1"/>
-    <col min="4" max="4" width="22.875" customWidth="1"/>
-    <col min="5" max="5" width="20.75" customWidth="1"/>
+    <col min="2" max="2" width="20.25" customWidth="1"/>
+    <col min="3" max="3" width="36.5" customWidth="1"/>
+    <col min="4" max="4" width="29.875" customWidth="1"/>
+    <col min="5" max="5" width="50.125" customWidth="1"/>
+    <col min="6" max="6" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -919,31 +1082,34 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="12">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="15">
         <v>43645</v>
       </c>
       <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
         <v>63</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="15"/>
+      <c r="B3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="12"/>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>65</v>
       </c>
-      <c r="C3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="12"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="15"/>
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -951,68 +1117,68 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="12"/>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="15"/>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="15"/>
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="15"/>
+      <c r="B7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="12"/>
-      <c r="B6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
-      <c r="B7" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="15"/>
+      <c r="B8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
-      <c r="B8" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="15"/>
+      <c r="B9" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="12"/>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>71</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="15"/>
+      <c r="B10" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>73</v>
       </c>
-      <c r="C10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="15"/>
       <c r="B11" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="15"/>
       <c r="B12" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="15"/>
       <c r="B13" t="s">
         <v>25</v>
       </c>
@@ -1020,205 +1186,355 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="12"/>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="15"/>
       <c r="B14" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="15"/>
+      <c r="B15" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="12"/>
-      <c r="B15" s="3" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="15"/>
+      <c r="B16" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="12"/>
-      <c r="B16" s="3" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="15"/>
+      <c r="B17" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="12"/>
-      <c r="B17" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="12"/>
+      <c r="A18" s="15"/>
       <c r="B18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="12"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="12"/>
+      <c r="A20" s="15"/>
       <c r="B20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="15"/>
+      <c r="B21" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="12"/>
-      <c r="B21" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="12"/>
+      <c r="A22" s="15"/>
       <c r="B22" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="12"/>
+      <c r="A23" s="15"/>
       <c r="B23" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" t="s">
         <v>83</v>
       </c>
-      <c r="C23" t="s">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="15"/>
+      <c r="B24" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="12"/>
-      <c r="B24" s="3" t="s">
+      <c r="C24" t="s">
         <v>85</v>
       </c>
-      <c r="C24" t="s">
-        <v>86</v>
-      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="12"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="3"/>
       <c r="C25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="15"/>
+      <c r="B26" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="12"/>
-      <c r="B26" s="3" t="s">
+      <c r="C26" t="s">
         <v>88</v>
       </c>
-      <c r="C26" t="s">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="15"/>
+      <c r="B27" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="12"/>
-      <c r="B27" s="3" t="s">
+      <c r="C27" t="s">
         <v>90</v>
       </c>
-      <c r="C27" t="s">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="15"/>
+      <c r="B28" s="3" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="12"/>
-      <c r="B28" s="3" t="s">
+      <c r="C28" t="s">
         <v>92</v>
       </c>
-      <c r="C28" t="s">
-        <v>93</v>
-      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="12"/>
+      <c r="A29" s="15"/>
       <c r="B29" s="3"/>
       <c r="C29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="15"/>
+      <c r="B30" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="12"/>
-      <c r="B30" s="3" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="15"/>
+      <c r="B31" s="3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="12"/>
-      <c r="B31" s="3" t="s">
+      <c r="C31" t="s">
         <v>96</v>
       </c>
-      <c r="C31" t="s">
-        <v>97</v>
-      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="12"/>
+      <c r="A32" s="15"/>
       <c r="B32" s="3"/>
       <c r="C32" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="15"/>
+      <c r="B33" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="12"/>
-      <c r="B33" s="3" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="15"/>
+      <c r="B34" s="3" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="12"/>
-      <c r="B34" s="3" t="s">
+      <c r="C34" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="15"/>
+      <c r="B35" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C34" t="s">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="15"/>
+      <c r="B36" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="12"/>
-      <c r="B35" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="12"/>
-      <c r="B36" s="3" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="13"/>
+      <c r="B37" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="13"/>
+      <c r="B38" t="s">
+        <v>118</v>
+      </c>
+      <c r="C38" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="13"/>
+      <c r="B39" t="s">
+        <v>140</v>
+      </c>
+      <c r="C39" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="13"/>
+      <c r="B40" t="s">
+        <v>127</v>
+      </c>
+      <c r="C40" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="13"/>
+      <c r="B41" t="s">
+        <v>143</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="4"/>
+      <c r="B42" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="4">
-        <v>43646</v>
-      </c>
-      <c r="B37" s="3" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="4"/>
+      <c r="B43" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="4"/>
+      <c r="B44" s="14"/>
+      <c r="C44" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="4"/>
+      <c r="B45" s="14"/>
+      <c r="C45" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="4"/>
+      <c r="B46" s="14"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="4"/>
+      <c r="B47" s="14"/>
+      <c r="C47" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="4"/>
+      <c r="B48" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="4"/>
-      <c r="B38" s="3" t="s">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="4"/>
+      <c r="B49" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C49" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="4"/>
+      <c r="B50" s="3" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="4"/>
-      <c r="B39" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="4"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="4"/>
+      <c r="C50" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>114</v>
+      </c>
+      <c r="C51" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>116</v>
+      </c>
+      <c r="C52" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="12"/>
+      <c r="B53" t="s">
+        <v>122</v>
+      </c>
+      <c r="E53" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>126</v>
+      </c>
+      <c r="C54" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>128</v>
+      </c>
+      <c r="C55" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>133</v>
+      </c>
+      <c r="C56" t="s">
+        <v>137</v>
+      </c>
+      <c r="E56" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>136</v>
+      </c>
+      <c r="C57" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>138</v>
+      </c>
+      <c r="C58" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="12">
+        <v>43670</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1228,14 +1544,14 @@
   <conditionalFormatting sqref="B13:B17">
     <cfRule type="duplicateValues" dxfId="4" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B44:B1048576 B1:B10">
+  <conditionalFormatting sqref="B51:B59 B61:B1048576 B39:B41 B1:B10">
     <cfRule type="duplicateValues" dxfId="3" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B43 C13:C18 B11:B12 C20:C36 B18:B39">
-    <cfRule type="duplicateValues" dxfId="2" priority="22"/>
+  <conditionalFormatting sqref="B61:B1048576 B1:B36 B39:B59">
+    <cfRule type="duplicateValues" dxfId="2" priority="33"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B42:B1048576 B1:B39">
-    <cfRule type="duplicateValues" dxfId="1" priority="26"/>
+  <conditionalFormatting sqref="B42:B50 C13:C18 B11:B12 C20:C36 B18:B36">
+    <cfRule type="duplicateValues" dxfId="1" priority="37"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1247,14 +1563,14 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="43.125" customWidth="1"/>
+    <col min="3" max="3" width="60.25" customWidth="1"/>
     <col min="4" max="4" width="43.75" customWidth="1"/>
     <col min="5" max="5" width="33.75" customWidth="1"/>
   </cols>
@@ -1277,7 +1593,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="13">
+      <c r="A2" s="16">
         <v>43643</v>
       </c>
       <c r="B2" t="s">
@@ -1288,7 +1604,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="13"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
@@ -1297,7 +1613,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="13"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
@@ -1312,34 +1628,34 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="13"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="2"/>
       <c r="C5" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="13"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="13"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="13"/>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="16"/>
       <c r="B8" s="3"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="13"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
@@ -1351,38 +1667,38 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
         <v>51</v>
       </c>
-      <c r="C10" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="13"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="2"/>
       <c r="C11" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="13"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
+      <c r="A13" s="16"/>
       <c r="C13" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="13"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
@@ -1397,43 +1713,43 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14" t="s">
+      <c r="A15" s="16"/>
+      <c r="B15" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" t="s">
         <v>55</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>56</v>
       </c>
-      <c r="D15" t="s">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="16"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="11" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="11" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="16"/>
+      <c r="B17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="13"/>
-      <c r="B17" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="16"/>
+      <c r="B18" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="13"/>
-      <c r="B18" s="2" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="16"/>
+      <c r="B19" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="13"/>
-      <c r="B19" s="2" t="s">
+      <c r="C19" t="s">
         <v>61</v>
-      </c>
-      <c r="C19" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -1521,7 +1837,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="16">
+      <c r="A2" s="19">
         <v>43643</v>
       </c>
       <c r="B2" t="s">
@@ -1529,7 +1845,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="16"/>
+      <c r="A3" s="19"/>
       <c r="B3" t="s">
         <v>32</v>
       </c>
@@ -1538,7 +1854,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="16"/>
+      <c r="A4" s="19"/>
       <c r="B4" t="s">
         <v>40</v>
       </c>
@@ -1547,8 +1863,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="16"/>
-      <c r="B5" s="15" t="s">
+      <c r="A5" s="19"/>
+      <c r="B5" s="18" t="s">
         <v>37</v>
       </c>
       <c r="C5" t="s">
@@ -1556,40 +1872,40 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="16"/>
-      <c r="B6" s="15"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="18"/>
       <c r="C6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="16"/>
-      <c r="B7" s="15"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="18"/>
       <c r="C7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
-      <c r="B8" s="15"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="18"/>
       <c r="C8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="16"/>
+      <c r="A9" s="19"/>
       <c r="B9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
+      <c r="A10" s="19"/>
       <c r="B10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="16"/>
+      <c r="A11" s="19"/>
       <c r="B11" t="s">
         <v>34</v>
       </c>
@@ -1606,6 +1922,51 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D5B0DDD-6B74-4B8D-BF30-D1A435893336}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="39.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>

--- a/ninja_pc/1903/ninja_pc.xlsx
+++ b/ninja_pc/1903/ninja_pc.xlsx
@@ -3,18 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BEFCC5D-F205-454B-8EA6-176BBD1DF101}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F805E17-CB48-4A45-881C-4FFE5B620A31}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2535" windowWidth="29040" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="2535" windowWidth="29040" windowHeight="15525" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="V2" sheetId="2" r:id="rId1"/>
-    <sheet name="V1" sheetId="3" r:id="rId2"/>
-    <sheet name="NINJA59KV0" sheetId="4" r:id="rId3"/>
-    <sheet name="解锁要做的事情" sheetId="5" r:id="rId4"/>
-    <sheet name="说明" sheetId="1" r:id="rId5"/>
+    <sheet name="V3" sheetId="6" r:id="rId1"/>
+    <sheet name="V2" sheetId="2" r:id="rId2"/>
+    <sheet name="V1" sheetId="3" r:id="rId3"/>
+    <sheet name="NINJA59KV0" sheetId="4" r:id="rId4"/>
+    <sheet name="解锁要做的事情" sheetId="5" r:id="rId5"/>
+    <sheet name="说明" sheetId="1" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="146">
   <si>
     <t>破解工具</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -440,10 +442,6 @@
     <t>E:\Users\gdnh_\Desktop</t>
   </si>
   <si>
-    <t>整理开始菜单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>i4tools</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -464,10 +462,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>C:\wf_program\x64\adobe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>reg add "HKEY_LOCAL_MACHINE\SOFTWARE\Policies\Microsoft\Windows Defender" /v "DisableAntiSpyware" /d 1 /t REG_DWORD /f</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -480,14 +474,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>会声会影</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正版</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>project2019</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -519,10 +505,6 @@
     <t>C:\wf_program\x86\Navicat\v12</t>
   </si>
   <si>
-    <t>mysql5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>python3.7 x64</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -531,9 +513,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>D:\Netease\CloudMusic</t>
-  </si>
-  <si>
     <t>查看Windows更新有没有正在安装状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -557,10 +536,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TNS_NAMES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>oracle环境变量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -581,10 +556,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>上传rar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pycharm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -602,6 +573,29 @@
   </si>
   <si>
     <t>hosts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\Adobe</t>
+  </si>
+  <si>
+    <t>升级WIN10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MYSQL5.7.26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nls_lang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIMPLIFIED CHINESE_CHINA.ZHS16GBK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -700,14 +694,14 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -725,7 +719,17 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1051,11 +1055,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{478590CB-2F9A-492E-A5D3-6DA6DB597332}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1082,476 +1086,24 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="15">
-        <v>43645</v>
+      <c r="A2" s="12">
+        <v>43705</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="15"/>
-      <c r="B3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
-      <c r="B6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-      <c r="B8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-      <c r="B10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
-      <c r="B11" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
-      <c r="B12" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="15"/>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
-      <c r="B15" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
-      <c r="B17" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
-      <c r="B18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
-      <c r="B19" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="15"/>
-      <c r="B20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="15"/>
-      <c r="B21" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="15"/>
-      <c r="B22" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
-      <c r="B23" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="15"/>
-      <c r="B24" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C24" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="15"/>
-      <c r="B25" s="3"/>
-      <c r="C25" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="15"/>
-      <c r="B26" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C26" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="15"/>
-      <c r="B27" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C27" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="15"/>
-      <c r="B28" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C28" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="15"/>
-      <c r="B29" s="3"/>
-      <c r="C29" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="15"/>
-      <c r="B30" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
-      <c r="B31" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C31" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="15"/>
-      <c r="B32" s="3"/>
-      <c r="C32" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="15"/>
-      <c r="B33" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="15"/>
-      <c r="B34" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C34" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="15"/>
-      <c r="B35" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="15"/>
-      <c r="B36" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="13"/>
-      <c r="B37" t="s">
-        <v>145</v>
-      </c>
-      <c r="C37" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="13"/>
-      <c r="B38" t="s">
-        <v>118</v>
-      </c>
-      <c r="C38" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="13"/>
-      <c r="B39" t="s">
-        <v>140</v>
-      </c>
-      <c r="C39" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="13"/>
-      <c r="B40" t="s">
-        <v>127</v>
-      </c>
-      <c r="C40" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="13"/>
-      <c r="B41" t="s">
-        <v>143</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="4"/>
-      <c r="B42" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="4"/>
-      <c r="B43" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="C43" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="4"/>
-      <c r="B44" s="14"/>
-      <c r="C44" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="4"/>
-      <c r="B45" s="14"/>
-      <c r="C45" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="4"/>
-      <c r="B46" s="14"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="4"/>
-      <c r="B47" s="14"/>
-      <c r="C47" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="4"/>
-      <c r="B48" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="4"/>
-      <c r="B49" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C49" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="4"/>
-      <c r="B50" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C50" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B51" t="s">
-        <v>114</v>
-      </c>
-      <c r="C51" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B52" t="s">
-        <v>116</v>
-      </c>
-      <c r="C52" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="12"/>
-      <c r="B53" t="s">
-        <v>122</v>
-      </c>
-      <c r="E53" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B54" t="s">
-        <v>126</v>
-      </c>
-      <c r="C54" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
-        <v>128</v>
-      </c>
-      <c r="C55" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B56" t="s">
-        <v>133</v>
-      </c>
-      <c r="C56" t="s">
-        <v>137</v>
-      </c>
-      <c r="E56" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B57" t="s">
-        <v>136</v>
-      </c>
-      <c r="C57" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B58" t="s">
-        <v>138</v>
-      </c>
-      <c r="C58" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="12">
-        <v>43670</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:A36"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B13:B17">
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B51:B59 B61:B1048576 B39:B41 B1:B10">
-    <cfRule type="duplicateValues" dxfId="3" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B61:B1048576 B1:B36 B39:B59">
-    <cfRule type="duplicateValues" dxfId="2" priority="33"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B42:B50 C13:C18 B11:B12 C20:C36 B18:B36">
-    <cfRule type="duplicateValues" dxfId="1" priority="37"/>
+  <conditionalFormatting sqref="B3:B1048576 B1">
+    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1559,6 +1111,501 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="20.25" customWidth="1"/>
+    <col min="3" max="3" width="36.5" customWidth="1"/>
+    <col min="4" max="4" width="29.875" customWidth="1"/>
+    <col min="5" max="5" width="50.125" customWidth="1"/>
+    <col min="6" max="6" width="20.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="14">
+        <v>43674</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="14"/>
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="14"/>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="14"/>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="14"/>
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="14"/>
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="14"/>
+      <c r="B8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="14"/>
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="14"/>
+      <c r="B10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="14"/>
+      <c r="B11" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="14"/>
+      <c r="B12" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="14"/>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="14"/>
+      <c r="B14" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="14"/>
+      <c r="B15" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="14"/>
+      <c r="B16" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="14"/>
+      <c r="B17" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="14"/>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="14"/>
+      <c r="B19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="14"/>
+      <c r="B20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="14"/>
+      <c r="B21" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="14"/>
+      <c r="B22" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="14"/>
+      <c r="B23" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="14"/>
+      <c r="B24" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="14"/>
+      <c r="B25" s="3"/>
+      <c r="C25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="14"/>
+      <c r="B26" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="14"/>
+      <c r="B27" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="14"/>
+      <c r="B28" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="14"/>
+      <c r="B29" s="3"/>
+      <c r="C29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="14"/>
+      <c r="B30" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="14"/>
+      <c r="B31" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="14"/>
+      <c r="B32" s="3"/>
+      <c r="C32" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="14"/>
+      <c r="B33" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="14"/>
+      <c r="B34" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="14"/>
+      <c r="B35" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="14"/>
+      <c r="B36" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="14"/>
+      <c r="B37" t="s">
+        <v>137</v>
+      </c>
+      <c r="C37" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="14"/>
+      <c r="B38" t="s">
+        <v>114</v>
+      </c>
+      <c r="C38" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="14"/>
+      <c r="B39" t="s">
+        <v>133</v>
+      </c>
+      <c r="C39" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="14"/>
+      <c r="B40" t="s">
+        <v>122</v>
+      </c>
+      <c r="C40" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="14"/>
+      <c r="B41" t="s">
+        <v>135</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="14"/>
+      <c r="B42" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="14"/>
+      <c r="B43" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C43" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="14"/>
+      <c r="B44" s="13"/>
+      <c r="C44" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="14"/>
+      <c r="B45" s="13"/>
+      <c r="C45" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="14"/>
+      <c r="B46" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="14"/>
+      <c r="B47" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="14"/>
+      <c r="B48" t="s">
+        <v>112</v>
+      </c>
+      <c r="C48" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="14"/>
+      <c r="B49" t="s">
+        <v>118</v>
+      </c>
+      <c r="C49" t="s">
+        <v>119</v>
+      </c>
+      <c r="D49" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="14"/>
+      <c r="B50" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="14"/>
+      <c r="B51" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="14"/>
+      <c r="B52" t="s">
+        <v>144</v>
+      </c>
+      <c r="C52" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="14"/>
+      <c r="B53" t="s">
+        <v>123</v>
+      </c>
+      <c r="C53" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="14"/>
+      <c r="B54" t="s">
+        <v>127</v>
+      </c>
+      <c r="E54" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="14"/>
+      <c r="B55" t="s">
+        <v>131</v>
+      </c>
+      <c r="C55" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A55"/>
+    <mergeCell ref="A56:C56"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B13:B17">
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B52:B55 B48:B50 B39:B41 B1:B10 B57:B1048576 A56">
+    <cfRule type="duplicateValues" dxfId="3" priority="66"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B52:B55 B1:B36 B39:B50 B57:B1048576 A56">
+    <cfRule type="duplicateValues" dxfId="2" priority="72"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B42:B47 C13:C18 B11:B12 C20:C36 B18:B36">
+    <cfRule type="duplicateValues" dxfId="1" priority="73"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E28"/>
   <sheetViews>
@@ -1647,7 +1694,7 @@
         <v>48</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1802,7 +1849,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -1921,7 +1968,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D5B0DDD-6B74-4B8D-BF30-D1A435893336}">
   <dimension ref="A1:A6"/>
   <sheetViews>
@@ -1936,27 +1983,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1966,7 +2013,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>

--- a/ninja_pc/1903/ninja_pc.xlsx
+++ b/ninja_pc/1903/ninja_pc.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F805E17-CB48-4A45-881C-4FFE5B620A31}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0CF42F-A765-42D2-B41E-0BAE7928B64A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2535" windowWidth="29040" windowHeight="15525" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="2535" windowWidth="29040" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="V3" sheetId="6" r:id="rId1"/>
     <sheet name="V2" sheetId="2" r:id="rId2"/>
     <sheet name="V1" sheetId="3" r:id="rId3"/>
     <sheet name="NINJA59KV0" sheetId="4" r:id="rId4"/>
-    <sheet name="解锁要做的事情" sheetId="5" r:id="rId5"/>
-    <sheet name="说明" sheetId="1" r:id="rId6"/>
+    <sheet name="navicat默认目录" sheetId="7" r:id="rId5"/>
+    <sheet name="解锁要做的事情" sheetId="5" r:id="rId6"/>
+    <sheet name="说明" sheetId="1" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="162">
   <si>
     <t>破解工具</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -596,6 +596,70 @@
   </si>
   <si>
     <t>SIMPLIFIED CHINESE_CHINA.ZHS16GBK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visual svn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81端口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装flask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vlc player</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USF4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ONEDRIVE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>navicat目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项-&gt;文件位置-&gt;C:\Users\gdnh_\Documents\Navicat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KB4505903，七月更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福昕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理桌面图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KB4512508，08累积更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32位Python</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c:\python\v3.7.4\x86</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾讯视频</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -791,6 +855,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>65721</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>18675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A5D46CB-ED30-4250-AAC4-87692144B468}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1352550" y="819150"/>
+          <a:ext cx="7628571" cy="3000000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1056,18 +1169,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{478590CB-2F9A-492E-A5D3-6DA6DB597332}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="2" width="20.25" customWidth="1"/>
-    <col min="3" max="3" width="36.5" customWidth="1"/>
-    <col min="4" max="4" width="29.875" customWidth="1"/>
+    <col min="1" max="1" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="22.125" customWidth="1"/>
+    <col min="4" max="4" width="52.625" customWidth="1"/>
     <col min="5" max="5" width="50.125" customWidth="1"/>
     <col min="6" max="6" width="20.75" customWidth="1"/>
   </cols>
@@ -1093,16 +1206,100 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="12">
-        <v>43705</v>
-      </c>
       <c r="B2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="12">
+        <v>43674</v>
+      </c>
+      <c r="B3" t="s">
         <v>141</v>
+      </c>
+      <c r="C3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="12">
+        <v>43693</v>
+      </c>
+      <c r="B12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="12">
+        <v>43698</v>
+      </c>
+      <c r="B13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="12">
+        <v>43703</v>
+      </c>
+      <c r="B14" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B3:B1048576 B1">
+  <conditionalFormatting sqref="B4:B1048576 B1:B2">
     <cfRule type="duplicateValues" dxfId="5" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1114,7 +1311,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -1969,11 +2166,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52914CCE-2EF1-401C-A5B1-560BCBED58C5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D5B0DDD-6B74-4B8D-BF30-D1A435893336}">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2013,7 +2225,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>

--- a/ninja_pc/1903/ninja_pc.xlsx
+++ b/ninja_pc/1903/ninja_pc.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0CF42F-A765-42D2-B41E-0BAE7928B64A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62332E0A-7841-4D36-BE46-FE55C3DC8FC0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2535" windowWidth="29040" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3315" yWindow="1650" windowWidth="20865" windowHeight="12705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="V3" sheetId="6" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="175">
   <si>
     <t>破解工具</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -661,6 +661,56 @@
   <si>
     <t>腾讯视频</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组策略，实时防护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vs2017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装英语语言包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08累积更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首选项》语言》替换为空格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>屏幕设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左屏主屏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾讯工峰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssh-keygen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载巴南sql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H:\a_hiynn\sql_datas</t>
+  </si>
+  <si>
+    <t>安装chrome</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChromeSetup20190906</t>
   </si>
 </sst>
 </file>
@@ -734,7 +784,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -760,6 +810,12 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1169,17 +1225,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{478590CB-2F9A-492E-A5D3-6DA6DB597332}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.875" customWidth="1"/>
     <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="3" max="3" width="22.125" customWidth="1"/>
+    <col min="3" max="3" width="37.125" customWidth="1"/>
     <col min="4" max="4" width="52.625" customWidth="1"/>
     <col min="5" max="5" width="50.125" customWidth="1"/>
     <col min="6" max="6" width="20.75" customWidth="1"/>
@@ -1295,6 +1351,79 @@
       </c>
       <c r="B14" t="s">
         <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>43708</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="12">
+        <v>43710</v>
+      </c>
+      <c r="B16" t="s">
+        <v>163</v>
+      </c>
+      <c r="C16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C19" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="12">
+        <v>43713</v>
+      </c>
+      <c r="B20" t="s">
+        <v>169</v>
+      </c>
+      <c r="C20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>171</v>
+      </c>
+      <c r="C21" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>173</v>
+      </c>
+      <c r="C22" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -1346,7 +1475,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="14">
+      <c r="A2" s="16">
         <v>43674</v>
       </c>
       <c r="B2" t="s">
@@ -1357,7 +1486,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="14"/>
+      <c r="A3" s="16"/>
       <c r="B3" t="s">
         <v>64</v>
       </c>
@@ -1366,7 +1495,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="14"/>
+      <c r="A4" s="16"/>
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -1375,7 +1504,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="14"/>
+      <c r="A5" s="16"/>
       <c r="B5" t="s">
         <v>7</v>
       </c>
@@ -1384,7 +1513,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="14"/>
+      <c r="A6" s="16"/>
       <c r="B6" t="s">
         <v>66</v>
       </c>
@@ -1393,19 +1522,19 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
+      <c r="A7" s="16"/>
       <c r="B7" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
+      <c r="A8" s="16"/>
       <c r="B8" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
+      <c r="A9" s="16"/>
       <c r="B9" t="s">
         <v>70</v>
       </c>
@@ -1414,7 +1543,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
+      <c r="A10" s="16"/>
       <c r="B10" t="s">
         <v>72</v>
       </c>
@@ -1423,19 +1552,19 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
+      <c r="A13" s="16"/>
       <c r="B13" t="s">
         <v>25</v>
       </c>
@@ -1444,37 +1573,37 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="14"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="14"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="3" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="14"/>
+      <c r="A18" s="16"/>
       <c r="B18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="14"/>
+      <c r="A19" s="16"/>
       <c r="B19" s="2" t="s">
         <v>79</v>
       </c>
@@ -1483,7 +1612,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="14"/>
+      <c r="A20" s="16"/>
       <c r="B20" s="2" t="s">
         <v>9</v>
       </c>
@@ -1492,19 +1621,19 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="14"/>
+      <c r="A21" s="16"/>
       <c r="B21" s="3" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
+      <c r="A23" s="16"/>
       <c r="B23" s="3" t="s">
         <v>82</v>
       </c>
@@ -1513,7 +1642,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
+      <c r="A24" s="16"/>
       <c r="B24" s="3" t="s">
         <v>84</v>
       </c>
@@ -1522,14 +1651,14 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
+      <c r="A25" s="16"/>
       <c r="B25" s="3"/>
       <c r="C25" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
+      <c r="A26" s="16"/>
       <c r="B26" s="3" t="s">
         <v>87</v>
       </c>
@@ -1538,7 +1667,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="14"/>
+      <c r="A27" s="16"/>
       <c r="B27" s="3" t="s">
         <v>89</v>
       </c>
@@ -1547,7 +1676,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
+      <c r="A28" s="16"/>
       <c r="B28" s="3" t="s">
         <v>91</v>
       </c>
@@ -1556,20 +1685,20 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="14"/>
+      <c r="A29" s="16"/>
       <c r="B29" s="3"/>
       <c r="C29" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="14"/>
+      <c r="A30" s="16"/>
       <c r="B30" s="3" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="14"/>
+      <c r="A31" s="16"/>
       <c r="B31" s="3" t="s">
         <v>95</v>
       </c>
@@ -1578,20 +1707,20 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="14"/>
+      <c r="A32" s="16"/>
       <c r="B32" s="3"/>
       <c r="C32" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="14"/>
+      <c r="A33" s="16"/>
       <c r="B33" s="3" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="14"/>
+      <c r="A34" s="16"/>
       <c r="B34" s="3" t="s">
         <v>99</v>
       </c>
@@ -1600,19 +1729,19 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="14"/>
+      <c r="A35" s="16"/>
       <c r="B35" s="3" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="14"/>
+      <c r="A36" s="16"/>
       <c r="B36" s="3" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="14"/>
+      <c r="A37" s="16"/>
       <c r="B37" t="s">
         <v>137</v>
       </c>
@@ -1621,7 +1750,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="14"/>
+      <c r="A38" s="16"/>
       <c r="B38" t="s">
         <v>114</v>
       </c>
@@ -1630,7 +1759,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="14"/>
+      <c r="A39" s="16"/>
       <c r="B39" t="s">
         <v>133</v>
       </c>
@@ -1639,7 +1768,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="14"/>
+      <c r="A40" s="16"/>
       <c r="B40" t="s">
         <v>122</v>
       </c>
@@ -1648,7 +1777,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="14"/>
+      <c r="A41" s="16"/>
       <c r="B41" t="s">
         <v>135</v>
       </c>
@@ -1657,13 +1786,13 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="14"/>
+      <c r="A42" s="16"/>
       <c r="B42" s="3" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="14"/>
+      <c r="A43" s="16"/>
       <c r="B43" s="13" t="s">
         <v>108</v>
       </c>
@@ -1672,21 +1801,21 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="14"/>
+      <c r="A44" s="16"/>
       <c r="B44" s="13"/>
       <c r="C44" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="14"/>
+      <c r="A45" s="16"/>
       <c r="B45" s="13"/>
       <c r="C45" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="14"/>
+      <c r="A46" s="16"/>
       <c r="B46" s="3" t="s">
         <v>104</v>
       </c>
@@ -1695,7 +1824,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="14"/>
+      <c r="A47" s="16"/>
       <c r="B47" s="3" t="s">
         <v>106</v>
       </c>
@@ -1704,7 +1833,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="14"/>
+      <c r="A48" s="16"/>
       <c r="B48" t="s">
         <v>112</v>
       </c>
@@ -1713,7 +1842,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="14"/>
+      <c r="A49" s="16"/>
       <c r="B49" t="s">
         <v>118</v>
       </c>
@@ -1725,19 +1854,19 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="14"/>
+      <c r="A50" s="16"/>
       <c r="B50" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="14"/>
+      <c r="A51" s="16"/>
       <c r="B51" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="14"/>
+      <c r="A52" s="16"/>
       <c r="B52" t="s">
         <v>144</v>
       </c>
@@ -1746,7 +1875,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="14"/>
+      <c r="A53" s="16"/>
       <c r="B53" t="s">
         <v>123</v>
       </c>
@@ -1755,7 +1884,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="14"/>
+      <c r="A54" s="16"/>
       <c r="B54" t="s">
         <v>127</v>
       </c>
@@ -1764,7 +1893,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="14"/>
+      <c r="A55" s="16"/>
       <c r="B55" t="s">
         <v>131</v>
       </c>
@@ -1773,11 +1902,11 @@
       </c>
     </row>
     <row r="56" spans="1:5" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="15" t="s">
+      <c r="A56" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="B56" s="15"/>
-      <c r="C56" s="15"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1807,7 +1936,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1837,7 +1966,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="16">
+      <c r="A2" s="18">
         <v>43643</v>
       </c>
       <c r="B2" t="s">
@@ -1848,7 +1977,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="16"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
@@ -1857,7 +1986,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="16"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
@@ -1872,21 +2001,21 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="16"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="2"/>
       <c r="C5" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="16"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="16"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="3" t="s">
         <v>48</v>
       </c>
@@ -1895,11 +2024,11 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="3"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="16"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
@@ -1911,7 +2040,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="2" t="s">
         <v>50</v>
       </c>
@@ -1920,14 +2049,14 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="16"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="2"/>
       <c r="C11" s="8" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="2" t="s">
         <v>46</v>
       </c>
@@ -1936,13 +2065,13 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
+      <c r="A13" s="18"/>
       <c r="C13" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="16"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
@@ -1957,8 +2086,8 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="16"/>
-      <c r="B15" s="17" t="s">
+      <c r="A15" s="18"/>
+      <c r="B15" s="19" t="s">
         <v>54</v>
       </c>
       <c r="C15" t="s">
@@ -1969,26 +2098,26 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="16"/>
-      <c r="B16" s="17"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="11" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="16"/>
+      <c r="A17" s="18"/>
       <c r="B17" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="16"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="16"/>
+      <c r="A19" s="18"/>
       <c r="B19" s="2" t="s">
         <v>60</v>
       </c>
@@ -2081,7 +2210,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="19">
+      <c r="A2" s="21">
         <v>43643</v>
       </c>
       <c r="B2" t="s">
@@ -2089,7 +2218,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="19"/>
+      <c r="A3" s="21"/>
       <c r="B3" t="s">
         <v>32</v>
       </c>
@@ -2098,7 +2227,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="19"/>
+      <c r="A4" s="21"/>
       <c r="B4" t="s">
         <v>40</v>
       </c>
@@ -2107,8 +2236,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="19"/>
-      <c r="B5" s="18" t="s">
+      <c r="A5" s="21"/>
+      <c r="B5" s="20" t="s">
         <v>37</v>
       </c>
       <c r="C5" t="s">
@@ -2116,40 +2245,40 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="19"/>
-      <c r="B6" s="18"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="20"/>
       <c r="C6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="19"/>
-      <c r="B7" s="18"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="20"/>
       <c r="C7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="19"/>
-      <c r="B8" s="18"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="20"/>
       <c r="C8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="19"/>
+      <c r="A9" s="21"/>
       <c r="B9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="19"/>
+      <c r="A10" s="21"/>
       <c r="B10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="19"/>
+      <c r="A11" s="21"/>
       <c r="B11" t="s">
         <v>34</v>
       </c>

--- a/ninja_pc/1903/ninja_pc.xlsx
+++ b/ninja_pc/1903/ninja_pc.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62332E0A-7841-4D36-BE46-FE55C3DC8FC0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550FCCD2-E0DB-4447-80AC-D19332E009C0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3315" yWindow="1650" windowWidth="20865" windowHeight="12705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32640" yWindow="-2280" windowWidth="20865" windowHeight="12705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="V3" sheetId="6" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="178">
   <si>
     <t>破解工具</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -711,6 +711,17 @@
   </si>
   <si>
     <t>ChromeSetup20190906</t>
+  </si>
+  <si>
+    <t>C:\Python\v3.7.4\x86\Scripts</t>
+  </si>
+  <si>
+    <t>取消同步语言设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装腾讯五笔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1225,18 +1236,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{478590CB-2F9A-492E-A5D3-6DA6DB597332}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.875" customWidth="1"/>
     <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="3" max="3" width="37.125" customWidth="1"/>
-    <col min="4" max="4" width="52.625" customWidth="1"/>
+    <col min="3" max="3" width="27.25" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
     <col min="5" max="5" width="50.125" customWidth="1"/>
     <col min="6" max="6" width="20.75" customWidth="1"/>
   </cols>
@@ -1268,6 +1279,9 @@
       <c r="C2" t="s">
         <v>160</v>
       </c>
+      <c r="E2" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
@@ -1424,6 +1438,16 @@
       </c>
       <c r="C22" t="s">
         <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
